--- a/ui-testsuite/src/main/resources/TestData/Order_Renewal_Reconciled_1.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Renewal_Reconciled_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>1168454271</t>
+  </si>
+  <si>
+    <t>0795498252</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +476,11 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1263,7 +1271,7 @@
         <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T2" t="s">
         <v>124</v>
@@ -1341,7 +1349,7 @@
         <v>1065483895</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AY2" t="s">
         <v>109</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Renewal_Reconciled_1.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Renewal_Reconciled_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>0795498252</t>
+  </si>
+  <si>
+    <t>9665668010</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +482,11 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1271,10 +1282,10 @@
         <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="U2" t="s">
         <v>75</v>
@@ -1349,7 +1360,7 @@
         <v>1065483895</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AY2" t="s">
         <v>109</v>
